--- a/data/trans_camb/P27A_4-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P27A_4-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 3,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 10,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>119,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>538,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>315,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>324,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>168,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-33,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,96; 424,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,44; 360,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 297,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,21; 161,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 4,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>65,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-60,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>67,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1037,29 +1233,44 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,52; 682,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,63; 850,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,87; 477,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,02; 447,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 2,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>64,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-34,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>86,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>78,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,21; 567,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-88,66; 219,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 327,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 269,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 262,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 151,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
